--- a/AdminSoftware/Template/ImportOrder.xlsx
+++ b/AdminSoftware/Template/ImportOrder.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\CV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GIT-AdminSoftware\AdminSoftware_MVC\AdminSoftware\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1075,7 +1075,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
